--- a/biology/Zoologie/Daceton/Daceton.xlsx
+++ b/biology/Zoologie/Daceton/Daceton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daceton est un genre de Fourmis de la famille des Myrmicinae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (12 janvier 2024)[1] :
-Daceton armigerum (Latreille, 1802) - Nord de l'Amérique du Sud[2]
-Daceton boltoni Azorsa &amp; Sosa-Calvo - Brésil, Pérou[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (12 janvier 2024) :
+Daceton armigerum (Latreille, 1802) - Nord de l'Amérique du Sud
+Daceton boltoni Azorsa &amp; Sosa-Calvo - Brésil, Pérou.
 			Tête de Daceton armigerum.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Daceton Perty, 1833[1].
-Daceton a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Daceton Perty, 1833.
+Daceton a pour synonyme :
 Dacetum Agassiz, 1846</t>
         </is>
       </c>
